--- a/INTLINE/data/111/NYSE/NYSE Composite - Weekly.xlsx
+++ b/INTLINE/data/111/NYSE/NYSE Composite - Weekly.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DAA2"/>
+  <dimension ref="A1:DAD2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14009,15 +14009,30 @@
       </c>
       <c r="CZY1" s="1" t="inlineStr">
         <is>
+          <t>2022-04-09</t>
+        </is>
+      </c>
+      <c r="CZZ1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="DAA1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-23</t>
+        </is>
+      </c>
+      <c r="DAB1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="CZZ1" s="1" t="inlineStr">
+      <c r="DAC1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="DAA1" s="1" t="inlineStr">
+      <c r="DAD1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -22210,17 +22225,26 @@
       <c r="CZX2" t="n">
         <v>16689.9</v>
       </c>
-      <c r="CZY2" t="inlineStr">
+      <c r="CZY2" t="n">
+        <v>16511.5</v>
+      </c>
+      <c r="CZZ2" t="n">
+        <v>16056.9</v>
+      </c>
+      <c r="DAA2" t="n">
+        <v>15615.3</v>
+      </c>
+      <c r="DAB2" t="inlineStr">
         <is>
           <t>NYA</t>
         </is>
       </c>
-      <c r="CZZ2" t="inlineStr">
+      <c r="DAC2" t="inlineStr">
         <is>
           <t>New York Stock Exchange: NYSE Composite Index</t>
         </is>
       </c>
-      <c r="DAA2" t="inlineStr">
+      <c r="DAD2" t="inlineStr">
         <is>
           <t>Index: 2002.12.31=5000</t>
         </is>

--- a/INTLINE/data/111/NYSE/NYSE Composite - Weekly.xlsx
+++ b/INTLINE/data/111/NYSE/NYSE Composite - Weekly.xlsx
@@ -22296,7 +22296,7 @@
         <v>14097</v>
       </c>
       <c r="DAI2" t="n">
-        <v>14414.3</v>
+        <v>14811.5</v>
       </c>
       <c r="DAJ2" t="inlineStr">
         <is>
